--- a/Team-Data/2014-15/6-23-2014-15.xlsx
+++ b/Team-Data/2014-15/6-23-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -789,7 +856,7 @@
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -938,7 +1005,7 @@
         <v>16</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>5</v>
@@ -965,7 +1032,7 @@
         <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR3" t="n">
         <v>12</v>
@@ -989,10 +1056,10 @@
         <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>26</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1187,7 @@
         <v>18</v>
       </c>
       <c r="AH4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>18</v>
@@ -1156,10 +1223,10 @@
         <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1399,7 @@
         <v>19</v>
       </c>
       <c r="AR5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS5" t="n">
         <v>6</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -1478,13 +1545,13 @@
         <v>9</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1526,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -1666,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI7" t="n">
         <v>15</v>
@@ -1690,16 +1757,16 @@
         <v>9</v>
       </c>
       <c r="AP7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR7" t="n">
         <v>11</v>
       </c>
       <c r="AS7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>18</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G8" t="n">
-        <v>0.617</v>
+        <v>0.61</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
@@ -1776,10 +1843,10 @@
         <v>39.7</v>
       </c>
       <c r="J8" t="n">
-        <v>85.90000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>8.9</v>
@@ -1788,7 +1855,7 @@
         <v>25.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.351</v>
+        <v>0.352</v>
       </c>
       <c r="O8" t="n">
         <v>16.9</v>
@@ -1797,19 +1864,19 @@
         <v>22.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T8" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U8" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="V8" t="n">
         <v>13</v>
@@ -1827,22 +1894,22 @@
         <v>20</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.3</v>
+        <v>105.2</v>
       </c>
       <c r="AC8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
       </c>
       <c r="AF8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>9</v>
@@ -1854,7 +1921,7 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1875,16 +1942,16 @@
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>20</v>
       </c>
       <c r="AS8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AT8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>10</v>
       </c>
       <c r="AX8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
         <v>13</v>
@@ -2063,7 +2130,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT9" t="n">
         <v>7</v>
@@ -2078,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="AX9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>29</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2285,7 @@
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>27</v>
@@ -2269,10 +2336,10 @@
         <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BB10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E12" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F12" t="n">
         <v>26</v>
       </c>
       <c r="G12" t="n">
-        <v>0.679</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,7 +2571,7 @@
         <v>37</v>
       </c>
       <c r="J12" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
         <v>0.444</v>
@@ -2516,16 +2583,16 @@
         <v>32.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O12" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>25.7</v>
+        <v>26</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.716</v>
+        <v>0.715</v>
       </c>
       <c r="R12" t="n">
         <v>11.7</v>
@@ -2534,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22.2</v>
@@ -2549,31 +2616,31 @@
         <v>5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB12" t="n">
         <v>103.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="n">
         <v>3</v>
       </c>
       <c r="AG12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2597,10 +2664,10 @@
         <v>14</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2612,7 +2679,7 @@
         <v>18</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
@@ -2627,7 +2694,7 @@
         <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2852,7 @@
         <v>18</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
         <v>21</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" t="n">
         <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" t="n">
-        <v>0.259</v>
+        <v>0.256</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.4</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.739</v>
+        <v>0.741</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T15" t="n">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="U15" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V15" t="n">
         <v>13.2</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.59999999999999</v>
+        <v>98.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3146,7 +3213,7 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>23</v>
@@ -3155,13 +3222,13 @@
         <v>8</v>
       </c>
       <c r="AS15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT15" t="n">
         <v>12</v>
       </c>
-      <c r="AT15" t="n">
-        <v>11</v>
-      </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
         <v>5</v>
@@ -3170,19 +3237,19 @@
         <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY15" t="n">
         <v>17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="AE16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF16" t="n">
         <v>5</v>
@@ -3313,7 +3380,7 @@
         <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3534,7 +3601,7 @@
         <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3735,7 @@
         <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI18" t="n">
         <v>16</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3850,7 +3917,7 @@
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI19" t="n">
         <v>25</v>
@@ -3874,7 +3941,7 @@
         <v>2</v>
       </c>
       <c r="AP19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="n">
         <v>37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.543</v>
+        <v>0.549</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,37 +4027,37 @@
         <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L20" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M20" t="n">
         <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O20" t="n">
         <v>16.4</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.756</v>
+        <v>0.751</v>
       </c>
       <c r="R20" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="S20" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
@@ -4002,7 +4069,7 @@
         <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,37 +4078,37 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
         <v>23</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4059,13 +4126,13 @@
         <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AR20" t="n">
         <v>10</v>
       </c>
       <c r="AS20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT20" t="n">
         <v>16</v>
@@ -4077,7 +4144,7 @@
         <v>6</v>
       </c>
       <c r="AW20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX20" t="n">
         <v>1</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -4417,13 +4484,13 @@
         <v>23</v>
       </c>
       <c r="AO22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP22" t="n">
         <v>6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" t="n">
         <v>25</v>
       </c>
       <c r="F23" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>0.309</v>
+        <v>0.305</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
         <v>82.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L23" t="n">
         <v>6.8</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.347</v>
@@ -4533,13 +4600,13 @@
         <v>10</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U23" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V23" t="n">
         <v>14.9</v>
@@ -4551,7 +4618,7 @@
         <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>20.9</v>
@@ -4560,13 +4627,13 @@
         <v>17.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4584,13 +4651,13 @@
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK23" t="n">
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4608,7 +4675,7 @@
         <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>24</v>
@@ -4629,10 +4696,10 @@
         <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -4942,13 +5009,13 @@
         <v>17</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI25" t="n">
         <v>7</v>
       </c>
       <c r="AJ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5239,7 @@
         <v>27</v>
       </c>
       <c r="AX26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -5351,7 +5418,7 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F28" t="n">
         <v>27</v>
       </c>
       <c r="G28" t="n">
-        <v>0.667</v>
+        <v>0.671</v>
       </c>
       <c r="H28" t="n">
         <v>48.7</v>
@@ -5416,25 +5483,25 @@
         <v>39.1</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.5</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.367</v>
       </c>
       <c r="O28" t="n">
         <v>16.7</v>
       </c>
       <c r="P28" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="Q28" t="n">
         <v>0.78</v>
@@ -5443,16 +5510,16 @@
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.9</v>
+        <v>33.8</v>
       </c>
       <c r="T28" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U28" t="n">
         <v>24.4</v>
       </c>
       <c r="V28" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
         <v>8</v>
@@ -5473,19 +5540,19 @@
         <v>103.2</v>
       </c>
       <c r="AC28" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF28" t="n">
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5512,7 +5579,7 @@
         <v>17</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,13 +5591,13 @@
         <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5791,7 @@
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA29" t="n">
         <v>13</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -5876,7 +5943,7 @@
         <v>14</v>
       </c>
       <c r="AP30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ30" t="n">
         <v>26</v>
@@ -5885,10 +5952,10 @@
         <v>4</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU30" t="n">
         <v>29</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>9</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>6</v>
@@ -6058,7 +6125,7 @@
         <v>25</v>
       </c>
       <c r="AP31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6094,10 +6161,10 @@
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>6-23-2014-15</t>
+          <t>2015-06-23</t>
         </is>
       </c>
     </row>
